--- a/spliced/walkingToRunning/2023-03-30_14-25-40/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-25-40/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3082007866205247</v>
+        <v>-1.239354553595497</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7599403564100159</v>
+        <v>0.5934752043385932</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.08199426098537477</v>
+        <v>1.315698351103824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.055030976098011</v>
+        <v>0.1265866749218411</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1118559832089666</v>
+        <v>0.9830147470409047</v>
       </c>
       <c r="C3" t="n">
-        <v>2.441823707278079</v>
+        <v>1.104435794153933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.9488142382205837</v>
+        <v>0.2933733014283093</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6367879311681333</v>
+        <v>0.4318224985956808</v>
       </c>
       <c r="C4" t="n">
-        <v>2.219774765590215</v>
+        <v>1.679565984772173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.239354553595497</v>
+        <v>-0.3514636487162646</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5934752043385932</v>
+        <v>1.303912767754777</v>
       </c>
       <c r="C5" t="n">
-        <v>1.315698351103824</v>
+        <v>1.717408596215416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1265866749218411</v>
+        <v>-0.8439442796328934</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9830147470409047</v>
+        <v>1.107491066802433</v>
       </c>
       <c r="C6" t="n">
-        <v>1.104435794153933</v>
+        <v>-0.297189421712284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2933733014283093</v>
+        <v>1.054603315660084</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4318224985956808</v>
+        <v>-0.3611965101983832</v>
       </c>
       <c r="C7" t="n">
-        <v>1.679565984772173</v>
+        <v>-2.38295376773451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3514636487162646</v>
+        <v>1.400082142342559</v>
       </c>
       <c r="B8" t="n">
-        <v>1.303912767754777</v>
+        <v>-1.373465267046946</v>
       </c>
       <c r="C8" t="n">
-        <v>1.717408596215416</v>
+        <v>-4.113783430948127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.8439442796328934</v>
+        <v>2.811405012786107</v>
       </c>
       <c r="B9" t="n">
-        <v>1.107491066802433</v>
+        <v>2.239890750284216</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.297189421712284</v>
+        <v>-2.48325762769725</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.054603315660084</v>
+        <v>1.144158274066543</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3611965101983832</v>
+        <v>0.4079549139291005</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.38295376773451</v>
+        <v>-2.216124885407739</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.400082142342559</v>
+        <v>-3.973825000981487</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.373465267046946</v>
+        <v>-4.923421618171759</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.113783430948127</v>
+        <v>5.359984481912402</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.811405012786107</v>
+        <v>-10.63765511113626</v>
       </c>
       <c r="B12" t="n">
-        <v>2.239890750284216</v>
+        <v>-7.195822839694799</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.48325762769725</v>
+        <v>9.095965221589761</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.144158274066543</v>
+        <v>3.433085498305679</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4079549139291005</v>
+        <v>4.357403949493808</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.216124885407739</v>
+        <v>-2.281185732013872</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-3.973825000981487</v>
+        <v>4.477401155732298</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.923421618171759</v>
+        <v>-3.086138354523986</v>
       </c>
       <c r="C14" t="n">
-        <v>5.359984481912402</v>
+        <v>-4.067132330150736</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-10.63765511113626</v>
+        <v>5.366742232297456</v>
       </c>
       <c r="B15" t="n">
-        <v>-7.195822839694799</v>
+        <v>3.331075757610629</v>
       </c>
       <c r="C15" t="n">
-        <v>9.095965221589761</v>
+        <v>1.803214041672062</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.433085498305679</v>
+        <v>0.746474412569362</v>
       </c>
       <c r="B16" t="n">
-        <v>4.357403949493808</v>
+        <v>1.614592228954578</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.281185732013872</v>
+        <v>-2.489844009214525</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.477401155732298</v>
+        <v>-4.899446143452909</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.086138354523986</v>
+        <v>0.4346358306082141</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.067132330150736</v>
+        <v>4.76701935377427</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.366742232297456</v>
+        <v>-9.7976465981438</v>
       </c>
       <c r="B18" t="n">
-        <v>3.331075757610629</v>
+        <v>3.087984385994603</v>
       </c>
       <c r="C18" t="n">
-        <v>1.803214041672062</v>
+        <v>-1.579483953341611</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.746474412569362</v>
+        <v>-0.5613160348673585</v>
       </c>
       <c r="B19" t="n">
-        <v>1.614592228954578</v>
+        <v>0.9123670508682955</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.489844009214525</v>
+        <v>0.6450322871691367</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-4.899446143452909</v>
+        <v>2.186993496270989</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4346358306082141</v>
+        <v>-7.507715720437281</v>
       </c>
       <c r="C20" t="n">
-        <v>4.76701935377427</v>
+        <v>1.97455261667396</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-9.7976465981438</v>
+        <v>2.968808529135423</v>
       </c>
       <c r="B21" t="n">
-        <v>3.087984385994603</v>
+        <v>8.113890336998949</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.579483953341611</v>
+        <v>-6.538449691780965</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.87808840600416</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.777517291417992</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.215824003261815</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-4.240441676278492</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.87217904187515</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.334868672660862</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.2107466585311</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.91206166397641</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.052727646764785</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.8707238068140057</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-7.102825836988711</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5642036477901016</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6.469962025529018</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-3.154151007992533</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.828252468865385</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.114345516927603</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.64307104963562</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5952699299951911</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-2.965141663992466</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.430339549081439</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.28920519351959</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-4.759042248326804</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-5.845142855518262</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-5.263579006762336</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.102689377537001</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-4.462434116439107</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.959941364070088</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.054766318871562</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-4.391178798045361</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.19998335943338</v>
       </c>
     </row>
   </sheetData>
